--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36706CAC-1914-47D9-A7E1-59548E3E38C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA6821D-7FCE-4027-B884-692302588A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Zone</t>
   </si>
@@ -68,7 +68,91 @@
     <t>The Village Center District (VC) is intended to reinforce and enhance the historically mixed-use areas within rural communities and designated growth areas. The district provides for the location of a variety of limited commercial uses and a range of housing types while maintaining the compatibility of new development with existing development through design standards. A mix of uses is encouraged in the village center either within a single structure or as separate uses located throughout the district.</t>
   </si>
   <si>
-    <t>The purpose of the A district is to preserve productive agricultural land and the character and quality of the rural environment and to prevent urbanization where roads and other public facilities are scaled to meet only rural needs.</t>
+    <t>The purpose of the Agricultural District (A) is to preserve productive agricultural land and the character and quality of the rural environment and to prevent urbanization where roads and other public facilities are scaled to meet only rural needs.</t>
+  </si>
+  <si>
+    <t>Low-Density Residential</t>
+  </si>
+  <si>
+    <t>R-1</t>
+  </si>
+  <si>
+    <t>The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities. The following residential density districts and maximum densities are hereby established.</t>
+  </si>
+  <si>
+    <t>R-3</t>
+  </si>
+  <si>
+    <t>Medium-Density Residential</t>
+  </si>
+  <si>
+    <t>R-5</t>
+  </si>
+  <si>
+    <t>R-8</t>
+  </si>
+  <si>
+    <t>High-Density Residential</t>
+  </si>
+  <si>
+    <t>R-12</t>
+  </si>
+  <si>
+    <t>R-16</t>
+  </si>
+  <si>
+    <t>General Commercial</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>The General Commercial District (GC) is intended to provide general retail commercial and business services. The general commercial district will be located on roads with a minimum classification of collectors as designated by the County Comprehensive Plan.</t>
+  </si>
+  <si>
+    <t>Mixed Use</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>The Mixed Use District (MX) is intended to provide for a mixture of residential, commercial, and employment uses served by publicly owned community water and sewer within growth areas for the purpose of redevelopment and in-fill where identified by a County Comprehensive Plan land use designation of Mixed Use.</t>
+  </si>
+  <si>
+    <t>Limited Industrial</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>The purpose of the industrial districts is to provide for the development of varied industrial uses that would supply needed employment opportunities for the county. Industrial development has inherent characteristics that require special attention and protection. Due regard must be given to industrial needs for adequate site locations with concentration on terrain, availability of water and sewer systems, transportation, and compatibility with surrounding development. The Limited Industrial District (LI) is intended to provide adequate area for development of industrial uses whose operations have a relatively minor nuisance value and provides a healthful operating environment secure from the encroachment of residential uses and protected from adverse effects of incompatible industries.</t>
+  </si>
+  <si>
+    <t>General Industrial</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>The purpose of the industrial districts is to provide for the development of varied industrial uses that would supply needed employment opportunities for the county. Industrial development has inherent characteristics that require special attention and protection. Due regard must be given to industrial needs for adequate site locations with concentration on terrain, availability of water and sewer systems, transportation, and compatibility with surrounding development. The General Industrial District (GI) is intended to provide areas for industries involving manufacturing or processing and for those industrial uses which cannot meet the performance criteria of the Limited Industrial District.</t>
+  </si>
+  <si>
+    <t>Mineral Mining</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>The purpose of the industrial districts is to provide for the development of varied industrial uses that would supply needed employment opportunities for the county. Industrial development has inherent characteristics that require special attention and protection. Due regard must be given to industrial needs for adequate site locations with concentration on terrain, availability of water and sewer systems, transportation, and compatibility with surrounding development.  The Mineral Mining District (MM) is a floating zone established for the purpose of providing for the development of needed mineral resources in areas where such resources exist subject to adequate safeguard for the conservation of the environment.</t>
+  </si>
+  <si>
+    <t>Office/Research Industrial</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>The purpose of the industrial districts is to provide for the development of varied industrial uses that would supply needed employment opportunities for the county. Industrial development has inherent characteristics that require special attention and protection. Due regard must be given to industrial needs for adequate site locations with concentration on terrain, availability of water and sewer systems, transportation, and compatibility with surrounding development. The Office/Research Industrial District (ORI) is intended to provide for the development of office, research and limited manufacturing uses in high visibility locations along major highways. Development in this district shall be characterized by an absence of nuisances in a clean and aesthetically attractive setting. This district shall permit limited manufacturing, fabrication or assembly operations which would, by nature of the product, or magnitude of production, be compatible with research, professional or business offices. Commercial uses shall be limited to those which are primarily oriented towards servicing those businesses located within the Office/Research Industrial District.</t>
   </si>
 </sst>
 </file>
@@ -450,18 +534,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386315A-1945-40AB-A178-10267306E6C4}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,65 +578,185 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -649,10 +853,6 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA6821D-7FCE-4027-B884-692302588A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA709B97-94A4-4696-90A9-7C35F4E585EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
+    <sheet name="Washington County" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Zone</t>
   </si>
@@ -153,6 +154,27 @@
   </si>
   <si>
     <t>The purpose of the industrial districts is to provide for the development of varied industrial uses that would supply needed employment opportunities for the county. Industrial development has inherent characteristics that require special attention and protection. Due regard must be given to industrial needs for adequate site locations with concentration on terrain, availability of water and sewer systems, transportation, and compatibility with surrounding development. The Office/Research Industrial District (ORI) is intended to provide for the development of office, research and limited manufacturing uses in high visibility locations along major highways. Development in this district shall be characterized by an absence of nuisances in a clean and aesthetically attractive setting. This district shall permit limited manufacturing, fabrication or assembly operations which would, by nature of the product, or magnitude of production, be compatible with research, professional or business offices. Commercial uses shall be limited to those which are primarily oriented towards servicing those businesses located within the Office/Research Industrial District.</t>
+  </si>
+  <si>
+    <t>Environmental Conservation</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Washington County Zoning Department</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to prescribe a zoning category for those areas where, because of natural geographic factors and existing land uses, it is considered feasible and desirable to conserve open spaces, water supply sources, woodland areas, wildlife and other natural resources. This district may include extensive steeply sloped areas, stream valleys, water supply sources, and wooded areas adjacent thereto.</t>
+  </si>
+  <si>
+    <t>Preservation</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to prescribe a zoning category for those areas where, because of natural geographic factors and existing land uses, it is considered feasible and desirable to conserve open spaces, water supply sources, woodland areas, wildlife and other natural resources. This district includes the County’s designated Rural Legacy Area, federal lands, state parks, state wildlife management areas, county parks, Edgemont Watershed, and most of the mountaintops and the Potomac River.</t>
   </si>
 </sst>
 </file>
@@ -536,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386315A-1945-40AB-A178-10267306E6C4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,4 +880,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08200528-FC7B-45B7-B68A-45766BB15ED4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA709B97-94A4-4696-90A9-7C35F4E585EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69109E21-DF89-46E5-9EAE-A9D0DAD717BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
     <sheet name="Washington County" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>Zone</t>
   </si>
@@ -175,6 +175,201 @@
   </si>
   <si>
     <t>The purpose of this district is to prescribe a zoning category for those areas where, because of natural geographic factors and existing land uses, it is considered feasible and desirable to conserve open spaces, water supply sources, woodland areas, wildlife and other natural resources. This district includes the County’s designated Rural Legacy Area, federal lands, state parks, state wildlife management areas, county parks, Edgemont Watershed, and most of the mountaintops and the Potomac River.</t>
+  </si>
+  <si>
+    <t>Agricultural Rural</t>
+  </si>
+  <si>
+    <t>A(R)</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide for continued farming activity and the many uses that do not require public water and sewerage facilities and which may be more suitably located outside of the urban-type growth of the larger communities of the County. The Agricultural zoning district has been purposely drawn to enclose large blocks of the best soils for intensive agricultural production as well as gently rolling topography for farming. Most of the operating farms as well as the largest block of farmland preserved through the Agricultural Preservation Program is located in this area.</t>
+  </si>
+  <si>
+    <t>Rural Village</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>The Rural Village designation is provided to preserve the unique historic or rural character of existing villages by encouraging compatible development within a defined village boundary. It also identifies clusters of existing development in the rural areas that may be candidates for public facilities in the future. The zone intends for permitted development to be generally of a similar density, scale and use type and mixture as that which exists in the village. The zone is also designed to prevent large amounts or inappropriately scaled development or uses that would detract from the existing rural or historic character of the village. It is expected that development will be residential and a limited amount of mixed rural services. More than one use may be permitted on one parcel in accordance with specific guidelines. Public water and sewer may be available for the purpose of resolving or preventing health issues. Use of public utilities to permit greater density than the density specified in this section is not permitted.</t>
+  </si>
+  <si>
+    <t>Rural Business</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>The “RB” Rural Business District is established to permit the continuation and development of businesses that support the agricultural industry and farming community, serve the needs of the rural residential population, provide for recreation and tourism opportunities, and to as establish locations for businesses and facilities not otherwise permitted in the rural areas of the County. The Rural Business District is established as a “floating zone” which may be located on any parcel in an Agricultural, Environmental Conservation, Preservation or Rural Village Zoning District.</t>
+  </si>
+  <si>
+    <t>Residential, Suburban</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>The purpose of the Residential, Suburban District is to provide appropriate locations in the Urban and Town Growth Areas for single and two-family dwellings on moderately sized lots and limited community service type uses.</t>
+  </si>
+  <si>
+    <t>Residential, Urban</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>The purpose of the Residential, Urban District is to provide appropriate locations in the Urban and Town Growth Areas for residential development at greater densities and limited community service type uses.</t>
+  </si>
+  <si>
+    <t>Residential, Multi-Family</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>The purpose of the Residential, Multi-Family District is to provide appropriate locations for apartments, condominiums, and town houses, and other types of multifamily buildings in the urban areas of the County at a maximum density of twelve (12) dwelling units per acre. All other types of residential units are also permitted.</t>
+  </si>
+  <si>
+    <t>Business, Local</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>The purpose of the Business, Local District is to provide appropriate locations where the retail goods and services needed by a neighborhood population can be made available and can be served with adequate water and/or sewerage service meeting Health Department standards.</t>
+  </si>
+  <si>
+    <t>Business, General</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>The purpose of the Business, General District is to provide appropriate locations for businesses of a more general nature than might be expected to be found in a neighborhood.</t>
+  </si>
+  <si>
+    <t>Industrial, Restricted</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>The purpose of the Industrial, Restricted District is to provide locations for low intensity manufacturing and assembly processes which may not require extensive measures to allow compatibility with adjacent land uses. Manufacturing uses in the Industrial, Restricted District include the processing or assembly of previously processed materials.</t>
+  </si>
+  <si>
+    <t>Industrial, General</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>The purpose of the Industrial, General District is to provide locations for manufacturing, processing, and other heavy industrial uses which may require extensive transportation, water and/or sewerage facilities, or open space, because of the number of employees, the type of manufacturing operation, or any by-products which might result from the use. Industrial uses related to agriculture such as grain milling, storage, feed production, and sales are also included.</t>
+  </si>
+  <si>
+    <t>Industrial, Mineral</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>The purpose of the Industrial, Mineral District is to provide for high volume mineral extraction in the Rural Policy Area of the County. It is the intent of this Ordinance that Industrial, Mineral Districts be protected from encroachment by incompatible land uses and that new or expanded "IM" Districts be compatible with existing adjacent land uses.</t>
+  </si>
+  <si>
+    <t>Mixed Use Residential</t>
+  </si>
+  <si>
+    <t>MXR</t>
+  </si>
+  <si>
+    <t>Washington County offers a variety of Mixed Use Districts to permit a greater degree of flexibility and creativity in the design and development of residential, commercial, and employment-focused areas than is possible under conventional zoning standards. The purpose is to provide a compatible and complementary mixture of uses that will create a desirable living and working environment, promote an efficient use of the land, provide for a harmonious variety of housing choices, a more varied level of community services and amenities, and the promotion of adequate open space and scenic attractiveness. The MXR or Mixed Use Residential District is designed to permit a mixture of residential uses only, according to a pre-approved master plan. It allows a mixture of residential uses not normally permitted in the underlying Euclidean zone.</t>
+  </si>
+  <si>
+    <t>Mixed Use Commercial</t>
+  </si>
+  <si>
+    <t>MXC</t>
+  </si>
+  <si>
+    <t>Washington County offers a variety of Mixed Use Districts to permit a greater degree of flexibility and creativity in the design and development of residential, commercial, and employment-focused areas than is possible under conventional zoning standards. The purpose is to provide a compatible and complementary mixture of uses that will create a desirable living and working environment, promote an efficient use of the land, provide for a harmonious variety of housing choices, a more varied level of community services and amenities, and the promotion of adequate open space and scenic attractiveness. The MXC or Mixed Use Commercial District is designed to permit a mixture of residential uses and limited commercial development to provide goods and services necessary to the neighborhood, all according to a preapproved master plan.</t>
+  </si>
+  <si>
+    <t>Mixed Use Employment</t>
+  </si>
+  <si>
+    <t>MXE</t>
+  </si>
+  <si>
+    <t>Washington County offers a variety of Mixed Use Districts to permit a greater degree of flexibility and creativity in the design and development of residential, commercial, and employment-focused areas than is possible under conventional zoning standards. The purpose is to provide a compatible and complementary mixture of uses that will create a desirable living and working environment, promote an efficient use of the land, provide for a harmonious variety of housing choices, a more varied level of community services and amenities, and the promotion of adequate open space and scenic attractiveness. The MXE or Mixed Use Employment District is designed to permit a mixture of residential uses, commercial development to provide goods and services necessary to the neighborhood, and land uses that can provide employment opportunities nearby and remain compatible in proximity to residences, all according to a pre-approved master plan.</t>
+  </si>
+  <si>
+    <t>Planned Industrial</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>The Planned Industrial District is intended to foster industrial development in Planned Industrial Parks. The District allows a wide range of manufacturing, assembly, processing, research and development, and office uses. Due to the pre-planned and comprehensively designed nature of an industrial park and increased site design and aesthetic standards, Planned Industrial Districts can be located, built and operated with a minimum of nuisance and mapped in locations where other industrial districts may be inappropriate. Uses in the Planned Industrial District shall be served with adequate public or community water and sewerage service meeting Health Department standards.</t>
+  </si>
+  <si>
+    <t>Highway Interchange</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>The Highway Interchange District is established to provide suitable locations for commercial activities or light industrial land uses that serve highway travelers, provide goods and services to a regional population, or uses that have a need to be located near the interstate highway system to facilitate access by a large number of employees, or the receipt or shipment of goods by highway vehicles. In addition to providing accessible locations, the Highway Interchange District is intended to protect the safe and efficient operation of the interchange and to promote its visual attractiveness. Site design guidelines will balance the needs for visibility with moderation of visual clutter, signs, and excessive lighting.</t>
+  </si>
+  <si>
+    <t>Historic Preservation</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>The purpose of the Historic Preservation District is to provide a mechanism for the protection, enhancement and perpetuation of those significant historic structures, sites and districts as defined in Section 20.7 in Washington County, which have historical, architectural, archeological and cultural merit. The "HP" district is an overlay zone meant to enhance, not substitute, for the existing zoning designation, that regulates land use.</t>
+  </si>
+  <si>
+    <t>Antietam Overlay</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>The purpose of the Antietam Overlay District is to provide mechanisms for the protection of significant historic structures and land areas by requiring development and land subdivision to occur in a manner that 1) preserves the existing quality of the viewshed of the Antietam Battlefield, and 2) ensures that development of certain lands adjacent to the major roads which provide public access to the Antietam Battlefield (i.e., Maryland Routes 34 and 65) is compatible with the agricultural and historic character of the area. The "AO" District is an overlay zone meant to enhance, not substitute for the existing underlying zoning designation, which regulates land use.</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>The four (4) Airport District zoning designations are established to provide a safe environment for airport operations and surrounding land uses. They are also intended to promote Hagerstown Regional Airport (Airport) as an economic development resource and to permit land uses which would benefit from or have a need to be located in proximity to a source of air transportation or a related business. They are established to monitor and prevent creation of uses or structures near or adjacent to the Airport which would result in a detriment or hazard to aircraft operations.</t>
+  </si>
+  <si>
+    <t>ORT</t>
+  </si>
+  <si>
+    <t>The purpose of the Office, Research, and Technology District (the “ORT” District”) is to support the County’s economic development effort by providing an environment that will attract medical, corporate offices, technology, and research and development-based businesses and institutions.</t>
+  </si>
+  <si>
+    <t>Office, Research, and Technology</t>
+  </si>
+  <si>
+    <t>Office, Research, and Industry</t>
+  </si>
+  <si>
+    <t>The purpose of the Office, Research, and Industry District (the "ORI" District) is to provide appropriate locations for a broader mixture of uses than are permitted in the "ORT" or other industrial districts. Uses permitted in the "ORI" District can be compatible amongst themselves and with adjacent development due to a low level of nuisance inherent in the use or through required strict adherence to specific performance standards.</t>
+  </si>
+  <si>
+    <t>Education, Research, and Technology</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>The purpose of the Education, Research, and Technology District (the "ERT" District) is to provide suitable locations for institutions of higher education, such as two (2) and four (4) year colleges and universities, that will support an environment conducive to higher education and related student life functions and provide compatibility with adjacent land uses. The District will permit all traditional higher education related activities and uses that result from the emerging trends and initiatives toward sharing expertise and facilities between colleges and the business, economic development, technology, and research communities. These uses may include business and technology development services such as incubators and accelerators, applied research, workforce education and training, economic development and research activities that include prototype and limited commodity production and testing, and the provision of structures and facilities within which to conduct such activities.</t>
   </si>
 </sst>
 </file>
@@ -884,16 +1079,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08200528-FC7B-45B7-B68A-45766BB15ED4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,30 +1109,338 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69109E21-DF89-46E5-9EAE-A9D0DAD717BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2490583-A977-4248-88DF-7ED47E29C3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Zone</t>
   </si>
@@ -78,9 +78,6 @@
     <t>R-1</t>
   </si>
   <si>
-    <t>The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities. The following residential density districts and maximum densities are hereby established.</t>
-  </si>
-  <si>
     <t>R-3</t>
   </si>
   <si>
@@ -370,6 +367,12 @@
   </si>
   <si>
     <t>The purpose of the Education, Research, and Technology District (the "ERT" District) is to provide suitable locations for institutions of higher education, such as two (2) and four (4) year colleges and universities, that will support an environment conducive to higher education and related student life functions and provide compatibility with adjacent land uses. The District will permit all traditional higher education related activities and uses that result from the emerging trends and initiatives toward sharing expertise and facilities between colleges and the business, economic development, technology, and research communities. These uses may include business and technology development services such as incubators and accelerators, applied research, workforce education and training, economic development and research activities that include prototype and limited commodity production and testing, and the provision of structures and facilities within which to conduct such activities.</t>
+  </si>
+  <si>
+    <t>The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities. </t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -812,69 +815,69 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -893,86 +896,86 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,338 +1112,338 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
         <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2490583-A977-4248-88DF-7ED47E29C3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61D822E-6308-4850-AA6C-47D414D70BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
     <sheet name="Washington County" sheetId="2" r:id="rId2"/>
+    <sheet name="Allegany County" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Zone</t>
   </si>
@@ -373,6 +374,144 @@
   </si>
   <si>
     <t xml:space="preserve">The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities. </t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Allegany County Planning and Zoning Department</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to regulate areas which, in the interest of the public health, safety, and general welfare of the city: a. Are subject to flooding and encroachment which aggravates flood conditions; b. Are part of or protective of the rights-of-way of an interstate highway; or c. Are located and featured in such a way as to, by reason of slope, geologic conditions, or overall natural character, warrant preservation through limited usage.</t>
+  </si>
+  <si>
+    <t>Estate Residential</t>
+  </si>
+  <si>
+    <t>R-E</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide for low-density residential and certain other forms of development in predominantly undeveloped areas, in a manner that protects the natural features of the land.</t>
+  </si>
+  <si>
+    <t>Suburban Residential</t>
+  </si>
+  <si>
+    <t>R-S</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide for the continuation of low density single family development in areas where existing and most recent single family development has occurred, and to stabilize and protect these areas.</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>R-U</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide areas for low and medium density urban residential uses, including single-family detached, single-family attached, and multi-family dwellings.</t>
+  </si>
+  <si>
+    <t>Residential-Office</t>
+  </si>
+  <si>
+    <t>R-O</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide areas appropriate for the harmonious mixing of residential and non-residential uses, and to provide for higher density residential development in a variety of housing types.</t>
+  </si>
+  <si>
+    <t>Local Business</t>
+  </si>
+  <si>
+    <t>B-L</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide areas adjacent to residential districts in which commercial uses are permitted primarily for the convenience shopping, professional service, and personal service needs of the area residents.</t>
+  </si>
+  <si>
+    <t>Highway Business</t>
+  </si>
+  <si>
+    <t>B-H</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide areas along major highways which are most appropriate for the development of businesses principally serving the needs of highway users and transients, with the servicing of resident convenience shoppers as a secondary function.</t>
+  </si>
+  <si>
+    <t>Central Business District</t>
+  </si>
+  <si>
+    <t>B-CBD</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to define and provide regulations for the central regional and city core of shopping, business, government, and related activities.</t>
+  </si>
+  <si>
+    <t>Business Commercial</t>
+  </si>
+  <si>
+    <t>B-C</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to provide opportunities for both business and commercial uses which exhibit similar functions in areas which are existing or potentially suitable for such uses, and to effect a desirable transition between business, commercial, existing residential, and other uses.</t>
+  </si>
+  <si>
+    <t>Industrial-General</t>
+  </si>
+  <si>
+    <t>I-G</t>
+  </si>
+  <si>
+    <t>The purpose of this zoning district is to permit and encourage modern industrial development and to permit limited commercial development.</t>
+  </si>
+  <si>
+    <t>Gateway-Commercial District</t>
+  </si>
+  <si>
+    <t>G-C</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to permit and encourage a mixture of commercial and residential uses within the North Mechanic Street/North Centre Street corridor.</t>
+  </si>
+  <si>
+    <t>Gateway-Industrial District</t>
+  </si>
+  <si>
+    <t>G-I</t>
+  </si>
+  <si>
+    <t>The purpose of this district is to permit and encourage a mixture of industrial/commercial and residential uses within the North Mechanic Street/North Centre Street corridor.</t>
+  </si>
+  <si>
+    <t>Rehabilitation and Redevelopment Floating Zone District</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>The purpose of the Rehabilitation and Redevelopment Floating Zone District is to allow and provide incentive for the reuse, rehabilitation, and redevelopment of such structures in a manner that will allow them to be restored to the active tax rolls and inventory of land in the city, while preserving the integrity of the neighborhood in which they are located.</t>
+  </si>
+  <si>
+    <t>Adaptive Reuse Floating Zone</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>The purpose of this floating zone district is to govern the comprehensive redevelopment and adaptive reuse of large properties (two (2) or more acres in size) containing one (1) or more structures (encompassing fifty thousand (50,000) square feet or more of gross floor area, either individually or in combination), the principal or primary use or operation of which has been discontinued or abandoned and which would require greater land use flexibility to revitalize or redevelop than may be allowed by alternative zoning classifications.</t>
+  </si>
+  <si>
+    <t>Planned Development Floating Zone</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>The purpose of the PD—Planned Development Floating Zone is to encourage the application of innovative and creative land use designs for residential and mixed use developments. The district is intended to allow the unified planning and development of large tracts of land suitable in location, area, and character for the uses and structures proposed</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08200528-FC7B-45B7-B68A-45766BB15ED4}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,4 +1588,247 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756DDD1D-AC87-411F-A32F-D80E159BFE9F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61D822E-6308-4850-AA6C-47D414D70BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{E61D822E-6308-4850-AA6C-47D414D70BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70978C5-0809-4232-8AE6-F9845BA00846}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
     <sheet name="Washington County" sheetId="2" r:id="rId2"/>
     <sheet name="Allegany County" sheetId="3" r:id="rId3"/>
+    <sheet name="Montgomery County" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="238">
   <si>
     <t>Zone</t>
   </si>
@@ -512,13 +513,253 @@
   </si>
   <si>
     <t>The purpose of the PD—Planned Development Floating Zone is to encourage the application of innovative and creative land use designs for residential and mixed use developments. The district is intended to allow the unified planning and development of large tracts of land suitable in location, area, and character for the uses and structures proposed</t>
+  </si>
+  <si>
+    <t>Agricultural Reserve</t>
+  </si>
+  <si>
+    <t>Montgomery County Planning and Zoning Department</t>
+  </si>
+  <si>
+    <t>The intent of the AR zone is to promote agriculture as the primary land use in areas of the County designated for agricultural preservation in the general plan, the Functional Master Plan for Preservation of Agriculture and Rural Open Space, and other current or future master plans. The AR zone accomplishes this intent by providing large areas of generally contiguous properties suitable for agricultural and related uses and permitting the transfer of development rights from properties in this zone to properties in designated receiving areas.</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>The intent of the R zone is to preserve rural areas of the County for agriculture and other natural resource development,residential uses of a rural character, extensive recreational facilities, and protection of scenic and environmentally sensitive areas.</t>
+  </si>
+  <si>
+    <t>Rural Cluster</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>The intent of the RC zone is to provide designated areas of the County for a compatible mixture of agricultural uses and very low-density residential development, to promote agriculture, and to protect scenic and environmentally sensitive areas. The RC zone permits an optional method Cluster Development alternative to provide greater flexibility in achieving a compatible mixture of agricultural and residential uses and to protect scenic and environmentally sensitive areas without jeopardizing farming or other agricultural uses.</t>
+  </si>
+  <si>
+    <t>Rural Neighborhood Cluster</t>
+  </si>
+  <si>
+    <t>RNC</t>
+  </si>
+  <si>
+    <t>The intent of the RNC zone is to preserve open land, environmentally sensitive natural resources, and rural community character through clustering of residential development in the form of small neighborhoods that provide neighborhood identity in an open space setting. A master plan must recommend the RNC zone, and must provide development guidelines and recommendations regarding density, and the location and rationale for preserving the rural open space. It is also the intent of the RNC zone to implement the recommendations of the applicable master plan, such as maintaining broad vistas of open space, preserving agrarian character, or preserving environmentally sensitive natural resources to the maximum extent possible, and to ensure that new development is in harmony with the policies and guidelines of the applicable master plan and is compatible with existing development in adjoining communities.</t>
+  </si>
+  <si>
+    <t>Residential Estate - 2</t>
+  </si>
+  <si>
+    <t>RE-2</t>
+  </si>
+  <si>
+    <t>The intent of the RE-2 zone is to provide designated areas of the County for large-lot residential uses. The predominant use is residential in a detached house.</t>
+  </si>
+  <si>
+    <t>Residential Estate - 2C</t>
+  </si>
+  <si>
+    <t>RE-2C</t>
+  </si>
+  <si>
+    <t>The intent of the RE-2C zone is to provide designated areas of the County for large-lot residential uses. The predominant use is residential in a detached house.</t>
+  </si>
+  <si>
+    <t>Residential Estate - 1</t>
+  </si>
+  <si>
+    <t>RE-1</t>
+  </si>
+  <si>
+    <t>The intent of the RE-1 zone is to provide designated areas of the County for large-lot residential uses. The predominant use is residential in a detached house.</t>
+  </si>
+  <si>
+    <t>Residential - 200</t>
+  </si>
+  <si>
+    <t>R-200</t>
+  </si>
+  <si>
+    <t>The intent of the R-200 zone is to provide designated areas of the County for residential uses with a minimum lot size of 20,000 square feet. The predominant use is residential in a detached house.</t>
+  </si>
+  <si>
+    <t>Residential - 90</t>
+  </si>
+  <si>
+    <t>R-90</t>
+  </si>
+  <si>
+    <t>The intent of the R-90 zone is to provide designated areas of the County for moderate density residential uses. The predominant use is residential in a detached house. A limited number of other building types may be allowed under the optional method of development</t>
+  </si>
+  <si>
+    <t>Residential - 60</t>
+  </si>
+  <si>
+    <t>R-60</t>
+  </si>
+  <si>
+    <t>The intent of the R-60 zone is to provide designated areas of the County for moderate density residential uses. The predominant use is residential in a detached house. A limited number of other building types may be allowed under the optional method of development.</t>
+  </si>
+  <si>
+    <t>Residential - 40</t>
+  </si>
+  <si>
+    <t>R- 40</t>
+  </si>
+  <si>
+    <t>The intent of the R-40 zone is to provide designated areas of the County for moderate density residential uses. The predominant use is residential in a duplex or detached house. A limited number of other building types may be allowed under the optional method of development.</t>
+  </si>
+  <si>
+    <t>Townhouse Low Density</t>
+  </si>
+  <si>
+    <t>TLD</t>
+  </si>
+  <si>
+    <t>The intent of the TLD zone is to provide designated areas of the County for residential purposes at slightly higher densities than the R-90, R-60, and R-40 zones. It is also the intent of the TLD zone to provide a buffer or transition between nonresidential or high-density residential uses and the medium- or low-density Residential zones.</t>
+  </si>
+  <si>
+    <t>Townhouse Medium Density</t>
+  </si>
+  <si>
+    <t>TMD</t>
+  </si>
+  <si>
+    <t>The intent of the TMD zone is to provide designated areas of the County for residential purposes at slightly higher densities than the R-90, R-60, and R-40 zones. It is also the intent of the TMD zone to provide a buffer or transition between nonresidential or high-density residential uses and the medium- or low-density Residential zones.</t>
+  </si>
+  <si>
+    <t>Townhouse High Density</t>
+  </si>
+  <si>
+    <t>THD</t>
+  </si>
+  <si>
+    <t>The intent of the THD zone is to provide designated areas of the County for residential purposes at slightly higher densities than the R-90, R-60, and R-40 zones. It is also the intent of the THD zone to provide a buffer or transition between nonresidential or high-density residential uses and the medium- or low-density Residential zones.</t>
+  </si>
+  <si>
+    <t>Residentual Multi-Unit Low Density</t>
+  </si>
+  <si>
+    <t>R-30</t>
+  </si>
+  <si>
+    <t>The intent of the R-30 zone is to provide designated areas of the County for higher-density, multi-unit residential uses. The predominant use is residential in an apartment building, although detached house, duplex, and townhouse building types are allowed.</t>
+  </si>
+  <si>
+    <t>Residential Multi-Unit Medium Density</t>
+  </si>
+  <si>
+    <t>R-20</t>
+  </si>
+  <si>
+    <t>The intent of the R-20 zone is to provide designated areas of the County for higher-density, multi-unit residential uses. The predominant use is residential in an apartment building, although detached house, duplex, and townhouse building types are allowed.</t>
+  </si>
+  <si>
+    <t>Residential Multi-Unit High Density</t>
+  </si>
+  <si>
+    <t>R-10</t>
+  </si>
+  <si>
+    <t>The intent of the R-10 zone is to provide designated areas of the County for higher-density, multi-unit residential uses. The predominant use is residential in an apartment building, although detached house, duplex, and townhouse building types are allowed.</t>
+  </si>
+  <si>
+    <t>Commercial Residential Neighborhood</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>The CRN zone is intended for pedestrian-scale, neighborhood-serving mixed-use centers and transitional edges. Retail tenant ground floor footprints are limited to preserve community scale.</t>
+  </si>
+  <si>
+    <t>Commercial Residential Town</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>The CRT zone is intended for small downtown, mixed-use, pedestrian-oriented centers and edges of larger, more intense downtowns. Retail tenant ground floor footprints are limited to preserve the town center scale. Transit options may include light rail, Metro, and bus.</t>
+  </si>
+  <si>
+    <t>Commercial Residential</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>The CR zone is intended for larger downtown, mixed-use, and pedestrian-oriented areas in close proximity to transit options such as Metro, light rail, and bus. Retail tenant gross floor area is not restricted.</t>
+  </si>
+  <si>
+    <t>General Retail</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>The GR zone is intended for commercial areas of a general nature, including regional shopping centers and clusters of commercial development. The GR zone provides development opportunities adjacent to the County's most auto-dominated corridors and those areas with few alternative mobility options. The GR zone allows flexibility in building, circulation, and parking lot layout. Retail/Service Establishment gross floor area is not restricted.</t>
+  </si>
+  <si>
+    <t>Neighborhood Retail</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>The NR zone is intended for commercial areas that have a neighborhood orientation and which supply necessities usually requiring frequent purchasing and convenient automobile access. The NR zone addresses development opportunities within primarily residential areas with few alternative mobility options and without a critical mass of density needed for pedestrian-oriented commercial uses. The NR zone allows flexibility in building, circulation, and parking lot layout.</t>
+  </si>
+  <si>
+    <t>Life Sciences Center</t>
+  </si>
+  <si>
+    <t>LSC</t>
+  </si>
+  <si>
+    <t>The LSC zone is intended primarily for research, development, education, and related activities. The primary purpose is to promote research, academic, and clinical facilities that advance the life sciences, health care services, and applied technologies. It is also the purpose of the LSC zone to provide opportunities for the development of uses that support a Life Sciences Center while retaining an environment conducive to high technology research, development, and production. Retail sales and personal services are allowed but are intended for the convenience of employees and residents in the zone.</t>
+  </si>
+  <si>
+    <t>Employment Office</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t>The EOF zone is intended for office and employment activity combined with limited residential and neighborhood commercial uses. The EOF allows flexibility in building, circulation, and parking lot layout.</t>
+  </si>
+  <si>
+    <t>Light Industrial</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>The IL zone is intended to provide land for industrial activities where major transportation links are not typically necessary and noise, dust, vibration, glare, odors, and other adverse environmental impacts are usually minimal. The IL zone is appropriate as a transitional Industrial zone between a Residentially zoned area and land classified in the IM and IH zones.</t>
+  </si>
+  <si>
+    <t>Moderate Industrial</t>
+  </si>
+  <si>
+    <t>The IM zone is intended to provide land for industrial activities where major transportation links are not typically necessary and noise, dust, vibration, glare, odors, and other adverse environmental impacts are usually minimal.</t>
+  </si>
+  <si>
+    <t>Heavy Industrial</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>The IH zone is intended to provide land for industrial activities that usually need major transportation links to highways or rail and may create significant noise, dust, vibration, glare, odors, and other adverse environmental impacts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +771,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Corbel"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -553,12 +800,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,6 +822,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,7 +1846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756DDD1D-AC87-411F-A32F-D80E159BFE9F}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1831,4 +2085,417 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35581AC-AE9A-4889-8D41-80F11D0C61A0}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{E61D822E-6308-4850-AA6C-47D414D70BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70978C5-0809-4232-8AE6-F9845BA00846}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
     <sheet name="Washington County" sheetId="2" r:id="rId2"/>
     <sheet name="Allegany County" sheetId="3" r:id="rId3"/>
     <sheet name="Montgomery County" sheetId="4" r:id="rId4"/>
+    <sheet name="Garrett County" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="262">
   <si>
     <t>Zone</t>
   </si>
@@ -753,13 +754,85 @@
   </si>
   <si>
     <t>The IH zone is intended to provide land for industrial activities that usually need major transportation links to highways or rail and may create significant noise, dust, vibration, glare, odors, and other adverse environmental impacts.</t>
+  </si>
+  <si>
+    <t>Agricultural Resource</t>
+  </si>
+  <si>
+    <t>Garrett County Planning and Zoning Department</t>
+  </si>
+  <si>
+    <t>The purpose of the Agricultural Resource district is to</t>
+  </si>
+  <si>
+    <t>Rural Resource</t>
+  </si>
+  <si>
+    <t>The purpose of the Rural Resource district is to</t>
+  </si>
+  <si>
+    <t>Lake Residential 1</t>
+  </si>
+  <si>
+    <t>LR1</t>
+  </si>
+  <si>
+    <t>The purpose of the Lake Residential 1 district is to</t>
+  </si>
+  <si>
+    <t>Lake Residential 2</t>
+  </si>
+  <si>
+    <t>LR2</t>
+  </si>
+  <si>
+    <t>The purpose of the Lake Residential 2 district is to</t>
+  </si>
+  <si>
+    <t>Town Residential</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>The purpose of the Town Residential district is to</t>
+  </si>
+  <si>
+    <t>Town Center</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>The purpose of the Town Center district is to</t>
+  </si>
+  <si>
+    <t>The purpose of the General Commercial district is to</t>
+  </si>
+  <si>
+    <t>Commercial Resort 1</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>The purpose of the Commercial Resort 1 district is to</t>
+  </si>
+  <si>
+    <t>Commercial Resort 2</t>
+  </si>
+  <si>
+    <t>CR2</t>
+  </si>
+  <si>
+    <t>The purpose of the Commercial Resort 2 district is to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +851,12 @@
       <color rgb="FF212529"/>
       <name val="Corbel"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -822,10 +901,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2091,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35581AC-AE9A-4889-8D41-80F11D0C61A0}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,4 +2573,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B876379D-006F-4A43-9039-6951AB347211}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75623CF6-BCD9-426E-ACC5-108559479D62}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
@@ -762,70 +762,70 @@
     <t>Garrett County Planning and Zoning Department</t>
   </si>
   <si>
-    <t>The purpose of the Agricultural Resource district is to</t>
-  </si>
-  <si>
     <t>Rural Resource</t>
   </si>
   <si>
-    <t>The purpose of the Rural Resource district is to</t>
-  </si>
-  <si>
     <t>Lake Residential 1</t>
   </si>
   <si>
     <t>LR1</t>
   </si>
   <si>
-    <t>The purpose of the Lake Residential 1 district is to</t>
-  </si>
-  <si>
     <t>Lake Residential 2</t>
   </si>
   <si>
     <t>LR2</t>
   </si>
   <si>
-    <t>The purpose of the Lake Residential 2 district is to</t>
-  </si>
-  <si>
     <t>Town Residential</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
-    <t>The purpose of the Town Residential district is to</t>
-  </si>
-  <si>
     <t>Town Center</t>
   </si>
   <si>
     <t>TC</t>
   </si>
   <si>
-    <t>The purpose of the Town Center district is to</t>
-  </si>
-  <si>
-    <t>The purpose of the General Commercial district is to</t>
-  </si>
-  <si>
     <t>Commercial Resort 1</t>
   </si>
   <si>
     <t>CR1</t>
   </si>
   <si>
-    <t>The purpose of the Commercial Resort 1 district is to</t>
-  </si>
-  <si>
     <t>Commercial Resort 2</t>
   </si>
   <si>
     <t>CR2</t>
   </si>
   <si>
-    <t>The purpose of the Commercial Resort 2 district is to</t>
+    <t>The purpose of the Agricultural Resource district is to protect rural character and conserve natural resources, primarily agricultural land, and also including forests and sensitive environmental areas by limiting residential development to a low density and providing a cluster subdivision option. To retain the value of land by allowing subdivision with a minimum lot size of 3 acres, or 1 acre under specified conditions. To allow selected commercial and recreational uses that do not conflict with the preservation of agricultural resources.</t>
+  </si>
+  <si>
+    <t>The purpose of the Rural Resource district is to protect rural character and conserve natural resources, primarily forest and timber resources, and also including agricultural land and sensitive environmental areas by limiting residential development to a low density and providing a cluster subdivision option. To retain the value of land by allowing subdivision with a minimum lot size of 3 acres, or 1 acre under specified conditions. To allow selected commercial and recreational uses that do not conflict with the preservation of forest and timber resources.</t>
+  </si>
+  <si>
+    <t>By limiting residential development to a relatively low average density, this district is intended to help reduce pressures for overdevelopment and overcrowding which would threaten the public health, safety and welfare by undermining property values, jeopardizing investments, threatening the tax base, causing pollution, creating health and safety hazards and endangering the balance of ecological systems within the lake’s drainage basin. The Lake Residential District 1 is intended for areas that fall within existing or future public sewer service boundaries, allowing for residential development at 1 dwelling unit per acre. Besides low-density residential use and continued farming and forestry, this district also is intended to help reduce possible pressure for overuse of the lake surface by accommodating certain types of land-based family-oriented recreation facilities. Most non-residential uses are treated as special exceptions to ensure adequate safeguards for preventing nuisances to adjoining properties.</t>
+  </si>
+  <si>
+    <t>The purpose of the Lake Residential 2 district is to to limit residential development to 1 dwelling per 2 acres within areas not planned for public water or public sewer service, thereby reducing pressure for overdevelopment that would undermine property values, cause pollution and endanger the balance of ecological systems within the lake's drainage basin. This district is intended to allow continued farming and forestry and to accommodate recreational uses in the same manner as in the Lake Residential 1 District.</t>
+  </si>
+  <si>
+    <t>The purpose of the Town Residential district is to provide for higher-density, more compact village or small-town settlements where central water and sewage service exist. To provide for single family homes, side-by-side twins, townhouses and apartments at an average density of approximately 4 to 5 units per acre. To provide for a few selected types of small commercial uses, while making sure these areas remain basically residential in nature.</t>
+  </si>
+  <si>
+    <t>The purpose of the Town Center district is to recognize the core areas of existing towns. To provide for higher-density, more compact village or small-town settlements where central water and sewage service exist. To provide for single family homes, side-by-side twins, townhouses and apartments at an average density of approximately 5 to 6 units per acre. To also provide for retail stores, restaurants, offices and similar light commercial uses, while avoiding heavy commercial and industrial uses.</t>
+  </si>
+  <si>
+    <t>The purpose of the General Commercial district is to mainly provide for larger and/or heavier commercial uses that are not compatible with residential areas and town center locations. To also provide for certain types of compatible light industrial development.</t>
+  </si>
+  <si>
+    <t>The purpose of the Commercial Resort 1 district is to provide for commercial recreation uses and supporting commercial activities. To promote resort-type light commercial uses and family recreation, while avoiding heavy highway commercial development. The Commercial Resort 1 district provides opportunities for visitor-oriented commercial development, but not major residential development. The Commercial Resort 2 district emphasizes land-based family-oriented development, while allowing for residential development at an average density of 1 unit per acre.</t>
+  </si>
+  <si>
+    <t>The purpose of the Commercial Resort 2 district is to provide for commercial recreation uses and supporting commercial activities. To promote resort-type light commercial uses and family recreation, while avoiding heavy highway commercial development. The Commercial Resort 1 district provides opportunities for visitor-oriented commercial development, but not major residential development. The Commercial Resort 2 district emphasizes land-based family-oriented development, while allowing for residential development at an average density of 1 unit per acre.</t>
   </si>
 </sst>
 </file>
@@ -2579,16 +2579,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B876379D-006F-4A43-9039-6951AB347211}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,12 +2614,12 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>150</v>
@@ -2630,63 +2628,63 @@
         <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
         <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,29 +2698,29 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75623CF6-BCD9-426E-ACC5-108559479D62}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A6781DC-51DA-43C0-B3C4-168F27F69CAE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Zone</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>The purpose of the Commercial Resort 2 district is to provide for commercial recreation uses and supporting commercial activities. To promote resort-type light commercial uses and family recreation, while avoiding heavy highway commercial development. The Commercial Resort 1 district provides opportunities for visitor-oriented commercial development, but not major residential development. The Commercial Resort 2 district emphasizes land-based family-oriented development, while allowing for residential development at an average density of 1 unit per acre.</t>
+  </si>
+  <si>
+    <t>Unzoned</t>
   </si>
 </sst>
 </file>
@@ -901,6 +904,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2577,9 +2584,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B876379D-006F-4A43-9039-6951AB347211}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2729,6 +2738,11 @@
         <v>261</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{B403492E-D524-470A-817F-100DC0F063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A6781DC-51DA-43C0-B3C4-168F27F69CAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA4DF28-16B8-4606-B3D8-82A740A57BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
   <si>
     <t>Zone</t>
   </si>
@@ -378,144 +378,18 @@
     <t xml:space="preserve">The purpose of the residential density districts is to promote healthful and convenient distribution of population with sufficient densities to maintain a high standard of physical design and community service. Residential density districts will conform to the County Comprehensive Plan and will be located within areas identified for residential development. The districts, as a group, are intended to provide for a variety of dwelling types and densities and to offer housing choices at various economic levels. It is further the intent to establish various densities of residential developments in order to efficiently and effectively provide for necessary public services and facilities. </t>
   </si>
   <si>
-    <t>Conservation</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Allegany County Planning and Zoning Department</t>
   </si>
   <si>
-    <t>The purpose of this district is to regulate areas which, in the interest of the public health, safety, and general welfare of the city: a. Are subject to flooding and encroachment which aggravates flood conditions; b. Are part of or protective of the rights-of-way of an interstate highway; or c. Are located and featured in such a way as to, by reason of slope, geologic conditions, or overall natural character, warrant preservation through limited usage.</t>
-  </si>
-  <si>
-    <t>Estate Residential</t>
-  </si>
-  <si>
-    <t>R-E</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide for low-density residential and certain other forms of development in predominantly undeveloped areas, in a manner that protects the natural features of the land.</t>
-  </si>
-  <si>
-    <t>Suburban Residential</t>
-  </si>
-  <si>
-    <t>R-S</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide for the continuation of low density single family development in areas where existing and most recent single family development has occurred, and to stabilize and protect these areas.</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>R-U</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide areas for low and medium density urban residential uses, including single-family detached, single-family attached, and multi-family dwellings.</t>
-  </si>
-  <si>
-    <t>Residential-Office</t>
-  </si>
-  <si>
-    <t>R-O</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide areas appropriate for the harmonious mixing of residential and non-residential uses, and to provide for higher density residential development in a variety of housing types.</t>
-  </si>
-  <si>
-    <t>Local Business</t>
-  </si>
-  <si>
-    <t>B-L</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide areas adjacent to residential districts in which commercial uses are permitted primarily for the convenience shopping, professional service, and personal service needs of the area residents.</t>
-  </si>
-  <si>
-    <t>Highway Business</t>
-  </si>
-  <si>
-    <t>B-H</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide areas along major highways which are most appropriate for the development of businesses principally serving the needs of highway users and transients, with the servicing of resident convenience shoppers as a secondary function.</t>
-  </si>
-  <si>
-    <t>Central Business District</t>
-  </si>
-  <si>
-    <t>B-CBD</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to define and provide regulations for the central regional and city core of shopping, business, government, and related activities.</t>
-  </si>
-  <si>
-    <t>Business Commercial</t>
-  </si>
-  <si>
-    <t>B-C</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to provide opportunities for both business and commercial uses which exhibit similar functions in areas which are existing or potentially suitable for such uses, and to effect a desirable transition between business, commercial, existing residential, and other uses.</t>
-  </si>
-  <si>
-    <t>Industrial-General</t>
-  </si>
-  <si>
-    <t>I-G</t>
-  </si>
-  <si>
-    <t>The purpose of this zoning district is to permit and encourage modern industrial development and to permit limited commercial development.</t>
-  </si>
-  <si>
-    <t>Gateway-Commercial District</t>
-  </si>
-  <si>
-    <t>G-C</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to permit and encourage a mixture of commercial and residential uses within the North Mechanic Street/North Centre Street corridor.</t>
-  </si>
-  <si>
-    <t>Gateway-Industrial District</t>
-  </si>
-  <si>
-    <t>G-I</t>
-  </si>
-  <si>
-    <t>The purpose of this district is to permit and encourage a mixture of industrial/commercial and residential uses within the North Mechanic Street/North Centre Street corridor.</t>
-  </si>
-  <si>
-    <t>Rehabilitation and Redevelopment Floating Zone District</t>
-  </si>
-  <si>
     <t>RR</t>
   </si>
   <si>
-    <t>The purpose of the Rehabilitation and Redevelopment Floating Zone District is to allow and provide incentive for the reuse, rehabilitation, and redevelopment of such structures in a manner that will allow them to be restored to the active tax rolls and inventory of land in the city, while preserving the integrity of the neighborhood in which they are located.</t>
-  </si>
-  <si>
-    <t>Adaptive Reuse Floating Zone</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
-    <t>The purpose of this floating zone district is to govern the comprehensive redevelopment and adaptive reuse of large properties (two (2) or more acres in size) containing one (1) or more structures (encompassing fifty thousand (50,000) square feet or more of gross floor area, either individually or in combination), the principal or primary use or operation of which has been discontinued or abandoned and which would require greater land use flexibility to revitalize or redevelop than may be allowed by alternative zoning classifications.</t>
-  </si>
-  <si>
-    <t>Planned Development Floating Zone</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>The purpose of the PD—Planned Development Floating Zone is to encourage the application of innovative and creative land use designs for residential and mixed use developments. The district is intended to allow the unified planning and development of large tracts of land suitable in location, area, and character for the uses and structures proposed</t>
-  </si>
-  <si>
     <t>Agricultural Reserve</t>
   </si>
   <si>
@@ -829,13 +703,22 @@
   </si>
   <si>
     <t>Unzoned</t>
+  </si>
+  <si>
+    <t>Neighborhood Commercial</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>The Neighborhood Commercial zone is intended to provide areas of commercial development to allow for retail services and other business uses within existing residential areas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +744,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -882,13 +771,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,10 +794,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756DDD1D-AC87-411F-A32F-D80E159BFE9F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,214 +1840,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
+      <c r="D2" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2201,380 +1891,380 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B876379D-006F-4A43-9039-6951AB347211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2614,86 +2304,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,46 +2391,46 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Zoning_Workbook.xlsx
+++ b/Zoning_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA4DF28-16B8-4606-B3D8-82A740A57BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8AA4DF28-16B8-4606-B3D8-82A740A57BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DECE1E3-D06C-4D4E-B44B-291CD9540FCC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F8FDE9A-8AA9-43D2-80E0-CEBDCEE92368}"/>
   </bookViews>
   <sheets>
     <sheet name="Frederick County" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="227">
   <si>
     <t>Zone</t>
   </si>
@@ -712,13 +712,204 @@
   </si>
   <si>
     <t>The Neighborhood Commercial zone is intended to provide areas of commercial development to allow for retail services and other business uses within existing residential areas.</t>
+  </si>
+  <si>
+    <t>Planned Unit Development</t>
+  </si>
+  <si>
+    <t>PUD</t>
+  </si>
+  <si>
+    <r>
+      <t>The PUD is intended to be used as an overlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>zone district</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> that supplements the underlying standard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>zone district</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The intent and purpose of this District is to permit and encourage innovative design and high quality, master-planned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>developments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on large </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>parcels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of land. This District is created to allow and encourage compatible uses to be developed in accordance with a unified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>development plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in harmony with the environment and surrounding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>neighborhood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The District is intended to permit greater flexibility in the application of zoning and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> standards and greater freedom in providing a mix of land uses in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of a balanced community. PUDs are expected to preserve critical environmental resources, provide above-average </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>open space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and recreational amenities, include exceptional design and provide greater efficiency in the layout and provision of roads, utilities and other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF094654"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>infrastructure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +940,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF094654"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1115,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386315A-1945-40AB-A178-10267306E6C4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,9 +1534,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1814,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756DDD1D-AC87-411F-A32F-D80E159BFE9F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
